--- a/data/hotels_by_city/Houston/Houston_shard_637.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_637.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="250">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56123-d73391-Reviews-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
   </si>
   <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Lake-Jackson-Hotels-Super-8-By-Wyndham-Lake-JacksonClute.h1352.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,624 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r605301106-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>56123</t>
+  </si>
+  <si>
+    <t>73391</t>
+  </si>
+  <si>
+    <t>605301106</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>The best place for your buck</t>
+  </si>
+  <si>
+    <t>In June I went to lake Jackson for work and stayed at this beautiful hotel for 2 nights. It was a quite little place with very clean and well maintained amenities. The staff was very friendly and I had multiple laughs at bar with the locals as well as the staff. I would recommend this place to all my peers and friends.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r605300742-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>605300742</t>
+  </si>
+  <si>
+    <t>Great staff and great service</t>
+  </si>
+  <si>
+    <t>I was at this hotel due to work. I was there for about a week. The room was good for the price and it was very clean. The bar at the hotel was the highlight as after work I dint have to go out to get a drink .</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r572987710-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>572987710</t>
+  </si>
+  <si>
+    <t>04/12/2018</t>
+  </si>
+  <si>
+    <t>The WORST.  Yuck.</t>
+  </si>
+  <si>
+    <t>Filthy carpet, whisker hairs in sink, hair in REFRIGERATOR and MICROWAVE, crunchy nasty blanket with holes and cigarette burns, threadbare sheets, mold on walls.  I had to replace the tp and when I unwrapped the new roll a partially smoked cigarette that had been stashed inside the roll fell out on my my lap.  Grossest roach motel ever.  Checked out at dawn the next day.  HORRIBLE</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r559276692-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>559276692</t>
+  </si>
+  <si>
+    <t>02/08/2018</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t>There was mold on the mattresses and the heat did not work at all and I was offered a space heater. On top of that, there were either fleas or bed bugs in the room because I received horrible bites on my hands, arms, and face from insect bites. I took pictures of the bites as well as the mold growing on the mattresses in the room. The towels we're dingy when they we're available. Also excessive noise and traffic.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r510133219-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>510133219</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t>Worst Super * ever</t>
+  </si>
+  <si>
+    <t>Not clean, floors were sticky, afraid to sleep in the bed; I slept on top of it.  If this room had cost $15, it would have been overpriced.  I've stayed at other Super 8s, usually when I need nothing more than a place to shower, sleep, change clothes, and be on my way.  They are generally OK for that purpose.  But after my stay at the Super in Lake Jackson/Clute, I'm not sure I'll ever stay at another Super 8.  If I could give this place 1/3 star, I would.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r509149716-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>509149716</t>
+  </si>
+  <si>
+    <t>08/05/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r500463027-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>500463027</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Mini Vacation</t>
+  </si>
+  <si>
+    <t>The hotel was definitely older and needs some love but the pool is very nice and big like pools use to be which made up for the age of the property.  If you are looking for fancy then its not for you.  If you can get past it being old then enjoy the pool and sleep in cold AC.  Staff was very sweet and helpful. Which made the stay pleasant</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r493044901-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>493044901</t>
+  </si>
+  <si>
+    <t>06/14/2017</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r491976204-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>491976204</t>
+  </si>
+  <si>
+    <t>06/10/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r481692380-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>481692380</t>
+  </si>
+  <si>
+    <t>05/04/2017</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Laura J, Guest Relations Manager at Super 8 by Wyndham Lake Jackson/Clute, responded to this reviewResponded May 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r467450636-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>467450636</t>
+  </si>
+  <si>
+    <t>03/14/2017</t>
+  </si>
+  <si>
+    <t>It could  be better</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They are clean but still. It was ok. Most likely we'll be going back. I didn't  try the pool or Go to the bar in side bit I have been there and it's OK too. And McDonalds  and sonic  is not to far away. Thanks </t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r462291907-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>462291907</t>
+  </si>
+  <si>
+    <t>02/23/2017</t>
+  </si>
+  <si>
+    <t>Simply Sad, Disgusting, and Lazy</t>
+  </si>
+  <si>
+    <t>The water came out green from the faucet! The carpet felt like someone poured a keg of beer over it. I hope that's what was making it sticky, and not "something else". One of the light bulbs was out. There was no sink-stopper for the tub, and we had to call down to the front desk 4 times for different hassles. They should charge half price for how crappy this place is. Horrible.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r421215025-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>421215025</t>
+  </si>
+  <si>
+    <t>09/22/2016</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r399628598-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>399628598</t>
+  </si>
+  <si>
+    <t>07/31/2016</t>
+  </si>
+  <si>
+    <t>Worst super 8 I've stayed in.</t>
+  </si>
+  <si>
+    <t>Took around 30 minutes to check in, the gentleman at the front desk exhibited terrible customer service and the rooms were way below what the price suggested. I stayed one night in this hotel in hopes of finding somewhere to stay long term (about twice a week for a year or so) but needless to say, I will be taking my business elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2016</t>
+  </si>
+  <si>
+    <t>Took around 30 minutes to check in, the gentleman at the front desk exhibited terrible customer service and the rooms were way below what the price suggested. I stayed one night in this hotel in hopes of finding somewhere to stay long term (about twice a week for a year or so) but needless to say, I will be taking my business elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r383292473-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>383292473</t>
+  </si>
+  <si>
+    <t>06/16/2016</t>
+  </si>
+  <si>
+    <t>Dump!</t>
+  </si>
+  <si>
+    <t>I don't even know where to begin. We had a reservation and used go fast award points for this stay.  The lady at the desk charged us full price so had to undo the charge.  What's the point of reserving in advance with the go fast points if it's just going to be ignored?  That shouldn't be an issue!  Then, our bed felt like it was very old and uncomfortable and the pillows were lumpy.  The property advertised laundry facilities and after 11 days on the road, that was something we planned to take advantage of.  Each load to wash/dry was $1.75, the most expensive we have seen anywhere in the country.  One of the washers' spin cycle did not work so had to hand wring out clothes and put in dryer.  Dryer didn't work properly either.  Clothes were hot when done but not dry.  We asked about the non-working washing machine and the answer was, "We are not responsible for them."  My husband said, "You advertised that you had them so you need to be responsible if they are not working."  After a bit of a debate, we were at least given our $1.75 back for that. We found that the upper floor ice machine was not working although the bottom floor one did. The advertisement shows a very nice club on property.  Believe me, it's a dive!  It's dark and old and dingy.  Also, the advertisement states there...I don't even know where to begin. We had a reservation and used go fast award points for this stay.  The lady at the desk charged us full price so had to undo the charge.  What's the point of reserving in advance with the go fast points if it's just going to be ignored?  That shouldn't be an issue!  Then, our bed felt like it was very old and uncomfortable and the pillows were lumpy.  The property advertised laundry facilities and after 11 days on the road, that was something we planned to take advantage of.  Each load to wash/dry was $1.75, the most expensive we have seen anywhere in the country.  One of the washers' spin cycle did not work so had to hand wring out clothes and put in dryer.  Dryer didn't work properly either.  Clothes were hot when done but not dry.  We asked about the non-working washing machine and the answer was, "We are not responsible for them."  My husband said, "You advertised that you had them so you need to be responsible if they are not working."  After a bit of a debate, we were at least given our $1.75 back for that. We found that the upper floor ice machine was not working although the bottom floor one did. The advertisement shows a very nice club on property.  Believe me, it's a dive!  It's dark and old and dingy.  Also, the advertisement states there is a restaurant next door.  Not true.  I would advise not wasting your money at this Super 8.  Pass on by and spend a few extra dollars to get better quality!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>I don't even know where to begin. We had a reservation and used go fast award points for this stay.  The lady at the desk charged us full price so had to undo the charge.  What's the point of reserving in advance with the go fast points if it's just going to be ignored?  That shouldn't be an issue!  Then, our bed felt like it was very old and uncomfortable and the pillows were lumpy.  The property advertised laundry facilities and after 11 days on the road, that was something we planned to take advantage of.  Each load to wash/dry was $1.75, the most expensive we have seen anywhere in the country.  One of the washers' spin cycle did not work so had to hand wring out clothes and put in dryer.  Dryer didn't work properly either.  Clothes were hot when done but not dry.  We asked about the non-working washing machine and the answer was, "We are not responsible for them."  My husband said, "You advertised that you had them so you need to be responsible if they are not working."  After a bit of a debate, we were at least given our $1.75 back for that. We found that the upper floor ice machine was not working although the bottom floor one did. The advertisement shows a very nice club on property.  Believe me, it's a dive!  It's dark and old and dingy.  Also, the advertisement states there...I don't even know where to begin. We had a reservation and used go fast award points for this stay.  The lady at the desk charged us full price so had to undo the charge.  What's the point of reserving in advance with the go fast points if it's just going to be ignored?  That shouldn't be an issue!  Then, our bed felt like it was very old and uncomfortable and the pillows were lumpy.  The property advertised laundry facilities and after 11 days on the road, that was something we planned to take advantage of.  Each load to wash/dry was $1.75, the most expensive we have seen anywhere in the country.  One of the washers' spin cycle did not work so had to hand wring out clothes and put in dryer.  Dryer didn't work properly either.  Clothes were hot when done but not dry.  We asked about the non-working washing machine and the answer was, "We are not responsible for them."  My husband said, "You advertised that you had them so you need to be responsible if they are not working."  After a bit of a debate, we were at least given our $1.75 back for that. We found that the upper floor ice machine was not working although the bottom floor one did. The advertisement shows a very nice club on property.  Believe me, it's a dive!  It's dark and old and dingy.  Also, the advertisement states there is a restaurant next door.  Not true.  I would advise not wasting your money at this Super 8.  Pass on by and spend a few extra dollars to get better quality!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r357829181-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>357829181</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>Mostly working men renting by the week,  not a family motel,  scary at night in the back row</t>
+  </si>
+  <si>
+    <t>Not a family motel to stay, kids in pool, working men living there hang out their doors drinking   it was scary at night !! MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Not a family motel to stay, kids in pool, working men living there hang out their doors drinking   it was scary at night !! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r342473528-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>342473528</t>
+  </si>
+  <si>
+    <t>01/24/2016</t>
+  </si>
+  <si>
+    <t>looking for work</t>
+  </si>
+  <si>
+    <t>very nice hotel room are a little smaller than most extended stay but was clean and the bed slept real good .would stay there again if ever in the area. close to all the shopping malls good places to eat close by .gas station in front of hotel. very nice staff to greet you maids was very helpful</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r333585896-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>333585896</t>
+  </si>
+  <si>
+    <t>12/17/2015</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r298489182-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>298489182</t>
+  </si>
+  <si>
+    <t>08/12/2015</t>
+  </si>
+  <si>
+    <t>decent and clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pretty decent place to stay for the price. Very clean rooms and a beautiful pool for the type of hotel. Very nice people and I did check for bed bugs and didn't see one thing that led me to believe they had them. Very happy.  </t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r286513966-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>286513966</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r285630115-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>285630115</t>
+  </si>
+  <si>
+    <t>07/04/2015</t>
+  </si>
+  <si>
+    <t>RUDE, DIRTY AND NASTY</t>
+  </si>
+  <si>
+    <t>any reviews by last name Patel giving good rating to this hotel are the same who own this crappy dirty hotel.We rented a room on 4th of July &amp; was told room would be ready @ 2.  At 3 p.m. and the room was dirty, smelly, was finally ready almost 4. We were pissed but No apolgies were offered instead the Indian son accused us of using drugs the last time we were there.  NEVER AGAIN WILL I RENT FROM THIS LOCATION!The employees confirmed my suspicions, the owner Patel is rude &amp; cheap.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r264993479-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>264993479</t>
+  </si>
+  <si>
+    <t>04/10/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poor Check In. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I called ahead of time to Reserve 2 NON-SMOKING Double Rooms. However, They gave me 2 Smoking, single Beds. When I walked in. The Front Desk Lady gave me the Weirdest Look ever. She didn't say hello. Hi how are you. I'm glad you chose us. Nothing. All she said was "YES?!" I told her about my Reservations. She said they didn't receive Calls. So I said, Leave it. Cancel everything. Then she threw my a card back at me. And said Have a Nice Day. And started to yell in Indian. I swear, if you want good Reviews from your Hotel be nice. </t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r256594733-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>256594733</t>
+  </si>
+  <si>
+    <t>02/26/2015</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r232782830-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>232782830</t>
+  </si>
+  <si>
+    <t>10/05/2014</t>
+  </si>
+  <si>
+    <t>An Adequate Stay</t>
+  </si>
+  <si>
+    <t>A good night's sleep.  The hotel is rather aged, but still a good, economical place to stay in the Brazosport area.  It also is the only Wyndham hotel in the area if you are a Wyndham Rewards member.  Our room was far from the front desk, so the WiFi signal was very poor - Could not connect at all.  At the breakfast area the WiFi was very good.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r216437273-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>216437273</t>
+  </si>
+  <si>
+    <t>07/20/2014</t>
+  </si>
+  <si>
+    <t>Cruise Stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The first room's sink wouldn't drain.  I called the front desk and he said "It's Sunday.  I'll try to find a can of Drano".  We eventually  moved to another room.  Everything was rusty.  Even the hangers.  The only redeeming quality was the girl at the front desk who checked us in.  She was very easy to talk to and hoped we had a good stay.  </t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r213632836-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>213632836</t>
+  </si>
+  <si>
+    <t>07/04/2014</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r212380683-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>212380683</t>
+  </si>
+  <si>
+    <t>06/27/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r177812765-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>177812765</t>
+  </si>
+  <si>
+    <t>09/19/2013</t>
+  </si>
+  <si>
+    <t>Room smelled of Oil worker</t>
+  </si>
+  <si>
+    <t>Room was relatively well kept, interesting oil refinery smell in room, and decent breakfest. Everybody was friendly at front desk.  Good location to the barrier islands. Slept well and woke up refreshed.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r168569327-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>168569327</t>
+  </si>
+  <si>
+    <t>07/22/2013</t>
+  </si>
+  <si>
+    <t>Disgusting!!</t>
+  </si>
+  <si>
+    <t>DO NOT STAY AT  THIS HOTEL it was the nastiest hotel I have ever stayed in and I will never return. The room was nasty and the pool was scary. Stained sheets and sticky bed covers. Bugs smashed on walls. Toilet not working.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r167109748-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>167109748</t>
+  </si>
+  <si>
+    <t>07/10/2013</t>
+  </si>
+  <si>
+    <t>Get nothing they say u do. Manager/owner rude and mean</t>
+  </si>
+  <si>
+    <t>When u go ti a motel u di not expect Dirty  stained sheets in bed. Check ur bed first if u come.   rooms could be cleaner carpet dirty recliner none a chair with holes in arms no Internet service in hotel room. Coffee maker but no coffee refills not even a bar of soap in restroom. Breakfast is toast ego waffle and dry cereal.  They have a club and had to call as music was booming at night.  Contractors stay here so manager making money from them.  Short on towels tv reception sucks. The staff at desk very nice but otherwise a run down place I would not recommend to any family.  You can Do a lot better.  Enjoyed the beaches.MoreShow less</t>
+  </si>
+  <si>
+    <t>When u go ti a motel u di not expect Dirty  stained sheets in bed. Check ur bed first if u come.   rooms could be cleaner carpet dirty recliner none a chair with holes in arms no Internet service in hotel room. Coffee maker but no coffee refills not even a bar of soap in restroom. Breakfast is toast ego waffle and dry cereal.  They have a club and had to call as music was booming at night.  Contractors stay here so manager making money from them.  Short on towels tv reception sucks. The staff at desk very nice but otherwise a run down place I would not recommend to any family.  You can Do a lot better.  Enjoyed the beaches.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r155463230-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>155463230</t>
+  </si>
+  <si>
+    <t>03/23/2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r149344641-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>149344641</t>
+  </si>
+  <si>
+    <t>01/10/2013</t>
+  </si>
+  <si>
+    <t>Another Horror Story</t>
+  </si>
+  <si>
+    <t>My wife and I attempted to stay at this hotel while visiting family in the area.  What a disaster!  Due to severe asthma, I specifically requested a non-smoking room, and wash very upfront in the room request.  When we arrived, there was nothing but one which STANK of cigarettes, and we promptly requested our non-smoking room.  The proprietors told us that the request was only ''advisory", and that it was up to them to see what was available and when.  Given the extremely late hour, we took the room, and I had terrible problems sleeping with the smell and my coughing.  In the morning, we talked with them again, and we told that we would have to contact them after Noon, as they weren't certain when someone would check out of a non-smoking room.  They gave no consideration to my medical distress.  We waited, and at one minute after Noon, they told us that no one was vacating a NS Room, and that we would be billed for a second night in their establishment, since we didn't check out until after the normal checkout time.  We promptly moved to a much nicer place, at a few dollars more, and also applied for a refund of our 'second' nights fee from the parent company.  After much to do, we were given a totally different story from the chain, and had we not immediately protested the charge to our credit card company...My wife and I attempted to stay at this hotel while visiting family in the area.  What a disaster!  Due to severe asthma, I specifically requested a non-smoking room, and wash very upfront in the room request.  When we arrived, there was nothing but one which STANK of cigarettes, and we promptly requested our non-smoking room.  The proprietors told us that the request was only ''advisory", and that it was up to them to see what was available and when.  Given the extremely late hour, we took the room, and I had terrible problems sleeping with the smell and my coughing.  In the morning, we talked with them again, and we told that we would have to contact them after Noon, as they weren't certain when someone would check out of a non-smoking room.  They gave no consideration to my medical distress.  We waited, and at one minute after Noon, they told us that no one was vacating a NS Room, and that we would be billed for a second night in their establishment, since we didn't check out until after the normal checkout time.  We promptly moved to a much nicer place, at a few dollars more, and also applied for a refund of our 'second' nights fee from the parent company.  After much to do, we were given a totally different story from the chain, and had we not immediately protested the charge to our credit card company (which decided in our favor), we would have been out a lot more money.  Frankly, our feeling was that we were deliberately jerked around to get another night's fee out, with the thought that it was no big deal.  Fortunately, the next place was very good about their NS rooms, and I suffered no lasting effects, once the Super 8 room effects had worn off.  I would not trust this location, even though I have had good success with other locations, as the family that owns this seems to think that money is not the only thing, it is everything!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>My wife and I attempted to stay at this hotel while visiting family in the area.  What a disaster!  Due to severe asthma, I specifically requested a non-smoking room, and wash very upfront in the room request.  When we arrived, there was nothing but one which STANK of cigarettes, and we promptly requested our non-smoking room.  The proprietors told us that the request was only ''advisory", and that it was up to them to see what was available and when.  Given the extremely late hour, we took the room, and I had terrible problems sleeping with the smell and my coughing.  In the morning, we talked with them again, and we told that we would have to contact them after Noon, as they weren't certain when someone would check out of a non-smoking room.  They gave no consideration to my medical distress.  We waited, and at one minute after Noon, they told us that no one was vacating a NS Room, and that we would be billed for a second night in their establishment, since we didn't check out until after the normal checkout time.  We promptly moved to a much nicer place, at a few dollars more, and also applied for a refund of our 'second' nights fee from the parent company.  After much to do, we were given a totally different story from the chain, and had we not immediately protested the charge to our credit card company...My wife and I attempted to stay at this hotel while visiting family in the area.  What a disaster!  Due to severe asthma, I specifically requested a non-smoking room, and wash very upfront in the room request.  When we arrived, there was nothing but one which STANK of cigarettes, and we promptly requested our non-smoking room.  The proprietors told us that the request was only ''advisory", and that it was up to them to see what was available and when.  Given the extremely late hour, we took the room, and I had terrible problems sleeping with the smell and my coughing.  In the morning, we talked with them again, and we told that we would have to contact them after Noon, as they weren't certain when someone would check out of a non-smoking room.  They gave no consideration to my medical distress.  We waited, and at one minute after Noon, they told us that no one was vacating a NS Room, and that we would be billed for a second night in their establishment, since we didn't check out until after the normal checkout time.  We promptly moved to a much nicer place, at a few dollars more, and also applied for a refund of our 'second' nights fee from the parent company.  After much to do, we were given a totally different story from the chain, and had we not immediately protested the charge to our credit card company (which decided in our favor), we would have been out a lot more money.  Frankly, our feeling was that we were deliberately jerked around to get another night's fee out, with the thought that it was no big deal.  Fortunately, the next place was very good about their NS rooms, and I suffered no lasting effects, once the Super 8 room effects had worn off.  I would not trust this location, even though I have had good success with other locations, as the family that owns this seems to think that money is not the only thing, it is everything!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r145395822-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>145395822</t>
+  </si>
+  <si>
+    <t>11/14/2012</t>
+  </si>
+  <si>
+    <t>Awesome place Guys!</t>
+  </si>
+  <si>
+    <t>This place was great! My husband and I worked late and we were Dog Tired. We stopped in here, the front desk staff were the best and she went far beyond what she's supposed to in order to make us happy. We thought to have a couple drinks in sports bar but the bartender was so amazing we ended up staying till closing time. I would recommend thus place to friends and family for future visits. Upon checkout I called to see I we could have a late checkout and was very happy to know that they were accommodating. This place is definitely a place I'll look forward to staying at in the future. MoreShow less</t>
+  </si>
+  <si>
+    <t>This place was great! My husband and I worked late and we were Dog Tired. We stopped in here, the front desk staff were the best and she went far beyond what she's supposed to in order to make us happy. We thought to have a couple drinks in sports bar but the bartender was so amazing we ended up staying till closing time. I would recommend thus place to friends and family for future visits. Upon checkout I called to see I we could have a late checkout and was very happy to know that they were accommodating. This place is definitely a place I'll look forward to staying at in the future. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r67016841-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>67016841</t>
+  </si>
+  <si>
+    <t>06/09/2010</t>
+  </si>
+  <si>
+    <t>Never Again</t>
+  </si>
+  <si>
+    <t>Room was gross. It had ants and the sheets felt dirty. The tv only got 4 channels. The motel was completely inhabited with shady characters. For the same price stay at Cherotel or Tx Inn and Suites.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r29838013-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>29838013</t>
+  </si>
+  <si>
+    <t>05/12/2009</t>
+  </si>
+  <si>
+    <t>will not stay there again</t>
+  </si>
+  <si>
+    <t>I checked in on Friday night, my 1st clue should have been the unprofessionalsm of the girl at  front desk.  I had advised upon making reservation a week in advance,I may need roll away bed Sat. night. She asked me at check in do I need roll away, I advised I won't know if add'l guest is coming till late Saturday and I'll let her know then. I got to the room...it seemed okay at 1st. I noticed the tub was dirty, but was too tired to complain. Saturday evening (after being gone all day) I came back to room, called front desk (7pm) to ask for rollaway. She said "it's too late you should have called earlier. I said why didn't you tell me there was a certain time frame?" She lied and said she did. .After spending 1/2 an hour on the phone with her trying unsuccessfully to get extra pillows, sheets, anything to make another bed with she finally gave me another room for free because she couldn't even give me basic bedding. I can't believe a business could operate like this. Yes, it solved my problem but I did spend 1/2 an hour frustrated and amazed at her incompetence. She said there was no supervisor or anyone she could call for a key to the housekeeping room where the items are stored. She said she didn't know corp  ph# or any way to contact superiors. I...I checked in on Friday night, my 1st clue should have been the unprofessionalsm of the girl at  front desk.  I had advised upon making reservation a week in advance,I may need roll away bed Sat. night. She asked me at check in do I need roll away, I advised I won't know if add'l guest is coming till late Saturday and I'll let her know then. I got to the room...it seemed okay at 1st. I noticed the tub was dirty, but was too tired to complain. Saturday evening (after being gone all day) I came back to room, called front desk (7pm) to ask for rollaway. She said "it's too late you should have called earlier. I said why didn't you tell me there was a certain time frame?" She lied and said she did. .After spending 1/2 an hour on the phone with her trying unsuccessfully to get extra pillows, sheets, anything to make another bed with she finally gave me another room for free because she couldn't even give me basic bedding. I can't believe a business could operate like this. Yes, it solved my problem but I did spend 1/2 an hour frustrated and amazed at her incompetence. She said there was no supervisor or anyone she could call for a key to the housekeeping room where the items are stored. She said she didn't know corp  ph# or any way to contact superiors. I called the hotel during business hours to complain and found out  that she d even lied to me about her name. It wasn't hard to for them to know who she is considering there is only one girl at front desk Fri &amp; Sat night.. The room had roaches and was dirty. I have left a message for the owner to call me so I can tell them about my stay. The other girls who answer the phone there during business hours seem very polite and appalled at my experience. I will leave another review after and if I talk to Mrs. Patel-owners wife.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>I checked in on Friday night, my 1st clue should have been the unprofessionalsm of the girl at  front desk.  I had advised upon making reservation a week in advance,I may need roll away bed Sat. night. She asked me at check in do I need roll away, I advised I won't know if add'l guest is coming till late Saturday and I'll let her know then. I got to the room...it seemed okay at 1st. I noticed the tub was dirty, but was too tired to complain. Saturday evening (after being gone all day) I came back to room, called front desk (7pm) to ask for rollaway. She said "it's too late you should have called earlier. I said why didn't you tell me there was a certain time frame?" She lied and said she did. .After spending 1/2 an hour on the phone with her trying unsuccessfully to get extra pillows, sheets, anything to make another bed with she finally gave me another room for free because she couldn't even give me basic bedding. I can't believe a business could operate like this. Yes, it solved my problem but I did spend 1/2 an hour frustrated and amazed at her incompetence. She said there was no supervisor or anyone she could call for a key to the housekeeping room where the items are stored. She said she didn't know corp  ph# or any way to contact superiors. I...I checked in on Friday night, my 1st clue should have been the unprofessionalsm of the girl at  front desk.  I had advised upon making reservation a week in advance,I may need roll away bed Sat. night. She asked me at check in do I need roll away, I advised I won't know if add'l guest is coming till late Saturday and I'll let her know then. I got to the room...it seemed okay at 1st. I noticed the tub was dirty, but was too tired to complain. Saturday evening (after being gone all day) I came back to room, called front desk (7pm) to ask for rollaway. She said "it's too late you should have called earlier. I said why didn't you tell me there was a certain time frame?" She lied and said she did. .After spending 1/2 an hour on the phone with her trying unsuccessfully to get extra pillows, sheets, anything to make another bed with she finally gave me another room for free because she couldn't even give me basic bedding. I can't believe a business could operate like this. Yes, it solved my problem but I did spend 1/2 an hour frustrated and amazed at her incompetence. She said there was no supervisor or anyone she could call for a key to the housekeeping room where the items are stored. She said she didn't know corp  ph# or any way to contact superiors. I called the hotel during business hours to complain and found out  that she d even lied to me about her name. It wasn't hard to for them to know who she is considering there is only one girl at front desk Fri &amp; Sat night.. The room had roaches and was dirty. I have left a message for the owner to call me so I can tell them about my stay. The other girls who answer the phone there during business hours seem very polite and appalled at my experience. I will leave another review after and if I talk to Mrs. Patel-owners wife.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r24441007-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>24441007</t>
+  </si>
+  <si>
+    <t>02/10/2009</t>
+  </si>
+  <si>
+    <t>Cockroaches</t>
+  </si>
+  <si>
+    <t>Was only going to be in Lake Jackson for 2 nights, so thought the price was really good.  Checked in the hotel and found a cockroach in the bathtub. Killed it thinking it was an isolated event.  Went to family's house for evening, upon return found more cockroaches and by 10:00 they were coming out and crawling up the walls, accross the floor, and over the tables.  These weren't the large dark ones know as tree or water roaches. These were the little gray/light brown ones that are found in infestations.  We checked out and went to another hotel. The extra cost was worth not worrying about things crawling on us in our sleep.  Dirty hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2009</t>
+  </si>
+  <si>
+    <t>Was only going to be in Lake Jackson for 2 nights, so thought the price was really good.  Checked in the hotel and found a cockroach in the bathtub. Killed it thinking it was an isolated event.  Went to family's house for evening, upon return found more cockroaches and by 10:00 they were coming out and crawling up the walls, accross the floor, and over the tables.  These weren't the large dark ones know as tree or water roaches. These were the little gray/light brown ones that are found in infestations.  We checked out and went to another hotel. The extra cost was worth not worrying about things crawling on us in our sleep.  Dirty hotel.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1159,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1191,2353 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" t="s">
+        <v>88</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" t="s">
+        <v>93</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>92</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>100</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>101</v>
+      </c>
+      <c r="X11" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" t="s">
+        <v>106</v>
+      </c>
+      <c r="L12" t="s">
+        <v>107</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>108</v>
+      </c>
+      <c r="O12" t="s">
+        <v>93</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" t="s">
+        <v>112</v>
+      </c>
+      <c r="L13" t="s">
+        <v>113</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>108</v>
+      </c>
+      <c r="O13" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" t="s">
+        <v>116</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s">
+        <v>80</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>117</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>118</v>
+      </c>
+      <c r="X14" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" t="s">
+        <v>123</v>
+      </c>
+      <c r="L15" t="s">
+        <v>124</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>125</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>126</v>
+      </c>
+      <c r="X15" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" t="s">
+        <v>132</v>
+      </c>
+      <c r="L16" t="s">
+        <v>133</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>134</v>
+      </c>
+      <c r="O16" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>118</v>
+      </c>
+      <c r="X16" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>137</v>
+      </c>
+      <c r="J17" t="s">
+        <v>138</v>
+      </c>
+      <c r="K17" t="s">
+        <v>139</v>
+      </c>
+      <c r="L17" t="s">
+        <v>140</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>141</v>
+      </c>
+      <c r="O17" t="s">
+        <v>88</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>118</v>
+      </c>
+      <c r="X17" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>144</v>
+      </c>
+      <c r="J18" t="s">
+        <v>145</v>
+      </c>
+      <c r="K18" t="s">
+        <v>146</v>
+      </c>
+      <c r="L18" t="s">
+        <v>147</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>149</v>
+      </c>
+      <c r="J19" t="s">
+        <v>150</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s"/>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>151</v>
+      </c>
+      <c r="O19" t="s">
+        <v>88</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>153</v>
+      </c>
+      <c r="J20" t="s">
+        <v>154</v>
+      </c>
+      <c r="K20" t="s">
+        <v>155</v>
+      </c>
+      <c r="L20" t="s">
+        <v>156</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>157</v>
+      </c>
+      <c r="O20" t="s">
+        <v>93</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>158</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>159</v>
+      </c>
+      <c r="J21" t="s">
+        <v>160</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>161</v>
+      </c>
+      <c r="O21" t="s">
+        <v>88</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>163</v>
+      </c>
+      <c r="J22" t="s">
+        <v>164</v>
+      </c>
+      <c r="K22" t="s">
+        <v>165</v>
+      </c>
+      <c r="L22" t="s">
+        <v>166</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>161</v>
+      </c>
+      <c r="O22" t="s">
+        <v>93</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>168</v>
+      </c>
+      <c r="J23" t="s">
+        <v>169</v>
+      </c>
+      <c r="K23" t="s">
+        <v>170</v>
+      </c>
+      <c r="L23" t="s">
+        <v>171</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>172</v>
+      </c>
+      <c r="O23" t="s">
+        <v>88</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>173</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>174</v>
+      </c>
+      <c r="J24" t="s">
+        <v>175</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>176</v>
+      </c>
+      <c r="O24" t="s">
+        <v>88</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>178</v>
+      </c>
+      <c r="J25" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" t="s">
+        <v>180</v>
+      </c>
+      <c r="L25" t="s">
+        <v>181</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>182</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>184</v>
+      </c>
+      <c r="J26" t="s">
+        <v>185</v>
+      </c>
+      <c r="K26" t="s">
+        <v>186</v>
+      </c>
+      <c r="L26" t="s">
+        <v>187</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>188</v>
+      </c>
+      <c r="O26" t="s">
+        <v>93</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>189</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>190</v>
+      </c>
+      <c r="J27" t="s">
+        <v>191</v>
+      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>192</v>
+      </c>
+      <c r="O27" t="s">
+        <v>93</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>193</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>194</v>
+      </c>
+      <c r="J28" t="s">
+        <v>195</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s">
+        <v>80</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>192</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>196</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>197</v>
+      </c>
+      <c r="J29" t="s">
+        <v>198</v>
+      </c>
+      <c r="K29" t="s">
+        <v>199</v>
+      </c>
+      <c r="L29" t="s">
+        <v>200</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>201</v>
+      </c>
+      <c r="O29" t="s">
+        <v>202</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>203</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>204</v>
+      </c>
+      <c r="J30" t="s">
+        <v>205</v>
+      </c>
+      <c r="K30" t="s">
+        <v>206</v>
+      </c>
+      <c r="L30" t="s">
+        <v>207</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>201</v>
+      </c>
+      <c r="O30" t="s">
+        <v>88</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>208</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>209</v>
+      </c>
+      <c r="J31" t="s">
+        <v>210</v>
+      </c>
+      <c r="K31" t="s">
+        <v>211</v>
+      </c>
+      <c r="L31" t="s">
+        <v>212</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>214</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>215</v>
+      </c>
+      <c r="J32" t="s">
+        <v>216</v>
+      </c>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s"/>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>217</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>218</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>219</v>
+      </c>
+      <c r="J33" t="s">
+        <v>220</v>
+      </c>
+      <c r="K33" t="s">
+        <v>221</v>
+      </c>
+      <c r="L33" t="s">
+        <v>222</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>223</v>
+      </c>
+      <c r="O33" t="s">
+        <v>88</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>225</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>226</v>
+      </c>
+      <c r="J34" t="s">
+        <v>227</v>
+      </c>
+      <c r="K34" t="s">
+        <v>228</v>
+      </c>
+      <c r="L34" t="s">
+        <v>229</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>231</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>232</v>
+      </c>
+      <c r="J35" t="s">
+        <v>233</v>
+      </c>
+      <c r="K35" t="s">
+        <v>234</v>
+      </c>
+      <c r="L35" t="s">
+        <v>235</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>236</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>237</v>
+      </c>
+      <c r="J36" t="s">
+        <v>238</v>
+      </c>
+      <c r="K36" t="s">
+        <v>239</v>
+      </c>
+      <c r="L36" t="s">
+        <v>240</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>241</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>243</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>244</v>
+      </c>
+      <c r="J37" t="s">
+        <v>245</v>
+      </c>
+      <c r="K37" t="s">
+        <v>246</v>
+      </c>
+      <c r="L37" t="s">
+        <v>247</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>248</v>
+      </c>
+      <c r="O37" t="s">
+        <v>88</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_637.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_637.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="383">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,24 +150,57 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r605347536-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>56123</t>
+  </si>
+  <si>
+    <t>73391</t>
+  </si>
+  <si>
+    <t>605347536</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>Clean rooms, friendly staff, a full bar!!!!!</t>
+  </si>
+  <si>
+    <t>Stayed there for a weekend. The rooms were amazing especially at the price we paid for it.The property is very clean and well managed.  The staff was very friendly and helpful since it was our first time in Houston. And the best part is definitely the full bar they have with a great collection. Would 100% stay there again when back in town.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r605303130-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>605303130</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>Was visiting the area for a short time to see family and found this place. The staff was very friendly and helpful whenever I needed something. Quite environment which is something my family and I enjoy. The rooms were great for the price. I would definitely recommend to others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r605301106-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
   </si>
   <si>
-    <t>56123</t>
-  </si>
-  <si>
-    <t>73391</t>
-  </si>
-  <si>
     <t>605301106</t>
   </si>
   <si>
-    <t>08/11/2018</t>
-  </si>
-  <si>
     <t>The best place for your buck</t>
   </si>
   <si>
@@ -192,9 +225,6 @@
     <t>I was at this hotel due to work. I was there for about a week. The room was good for the price and it was very clean. The bar at the hotel was the highlight as after work I dint have to go out to get a drink .</t>
   </si>
   <si>
-    <t>August 2018</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r572987710-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -210,6 +240,39 @@
     <t>Filthy carpet, whisker hairs in sink, hair in REFRIGERATOR and MICROWAVE, crunchy nasty blanket with holes and cigarette burns, threadbare sheets, mold on walls.  I had to replace the tp and when I unwrapped the new roll a partially smoked cigarette that had been stashed inside the roll fell out on my my lap.  Grossest roach motel ever.  Checked out at dawn the next day.  HORRIBLE</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r565478259-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>565478259</t>
+  </si>
+  <si>
+    <t>03/09/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Better options in area </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed overnight, staff in office was not paying attention, checked into room only to find they have roaches, debrir aling fences behind building. only good thing is bar on site. Best to find somewhere else. </t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r563209273-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>563209273</t>
+  </si>
+  <si>
+    <t>02/27/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r559276692-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -246,9 +309,6 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r509149716-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -267,6 +327,36 @@
     <t>More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r507478629-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>507478629</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>Just terrible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My husband has been staying at this hotel for half a year now &amp; everytime I go with my two girls we can't even take off our shoes because of how dirty the carpet is. The mini refrigerators are old &amp; rusty &amp; some don't even cool. Some air conditioners don't even cool being at the lowest temperature. The WI-FI doesn't even work bad signal. Last but not least the cost per night one day they say its $80 then the next day its $99. My husband stays there for necessity not for the quality of the hotel. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r503855074-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>503855074</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>WAY OUTDATED BATHROOM DIRTY</t>
+  </si>
+  <si>
+    <t>I also had a no smoking room but it smelled like a smoking room the toilet around floor was nasty and pillows were not good I didn't sleep well and left early it was $100 and if it would have done me any good I would have ask for a refund of at least 50%</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r500463027-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -282,9 +372,6 @@
     <t>The hotel was definitely older and needs some love but the pool is very nice and big like pools use to be which made up for the age of the property.  If you are looking for fancy then its not for you.  If you can get past it being old then enjoy the pool and sleep in cold AC.  Staff was very sweet and helpful. Which made the stay pleasant</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r493044901-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -297,9 +384,6 @@
     <t>June 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r491976204-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -309,6 +393,48 @@
     <t>06/10/2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r491527979-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>491527979</t>
+  </si>
+  <si>
+    <t>06/08/2017</t>
+  </si>
+  <si>
+    <t>Would not stay again!</t>
+  </si>
+  <si>
+    <t>Room they gavd us was disgusting. Smelled like urine and had mold on the walls. Gave us a different room and it was better but still dirty.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r483233154-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>483233154</t>
+  </si>
+  <si>
+    <t>05/10/2017</t>
+  </si>
+  <si>
+    <t>Unexpected emergency stay</t>
+  </si>
+  <si>
+    <t>I was unexpectedly in need of a place to stay for a day or two. Was very quick and efficient. Clean. Thank you. Just sucks I accidentally left my new phone charger in the room.  Room 241 and there weren't any cups in the room. And there were at least 2 really nasty looking spiders in the room when I first arrived. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Laura J, Guest Relations Manager at Super 8 by Wyndham Lake Jackson/Clute, responded to this reviewResponded May 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2017</t>
+  </si>
+  <si>
+    <t>I was unexpectedly in need of a place to stay for a day or two. Was very quick and efficient. Clean. Thank you. Just sucks I accidentally left my new phone charger in the room.  Room 241 and there weren't any cups in the room. And there were at least 2 really nasty looking spiders in the room when I first arrived. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r481692380-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -360,6 +486,42 @@
     <t>The water came out green from the faucet! The carpet felt like someone poured a keg of beer over it. I hope that's what was making it sticky, and not "something else". One of the light bulbs was out. There was no sink-stopper for the tub, and we had to call down to the front desk 4 times for different hassles. They should charge half price for how crappy this place is. Horrible.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r457953537-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>457953537</t>
+  </si>
+  <si>
+    <t>02/07/2017</t>
+  </si>
+  <si>
+    <t>unexpected layover</t>
+  </si>
+  <si>
+    <t>this day i was supposed to load a crane early in the am but not all turns out like planned so once loaded and nightfall less than 30 minutes away called reserved a room moved machine to a nearby truck stopo and enjoyd the rest of the night</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r429504478-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>429504478</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>I was in town for a funeral but was very disappointed in...</t>
+  </si>
+  <si>
+    <t>I was in town for a funeral but was very disappointed in the stay. 1st the room they put us in did not have a working AC. The next room as soon as we pulled back the cover, roaches were everywhere. Then when we asked for towels they didn't have access to get them so gave us access to another room which was very kind.   When we returned after the funeral our room hadn't been touched and we had no clean towels or anything so they gave us keys to another room as an accommodation but it was inconvenient because we had to go back and forward with the kids.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>I was in town for a funeral but was very disappointed in the stay. 1st the room they put us in did not have a working AC. The next room as soon as we pulled back the cover, roaches were everywhere. Then when we asked for towels they didn't have access to get them so gave us access to another room which was very kind.   When we returned after the funeral our room hadn't been touched and we had no clean towels or anything so they gave us keys to another room as an accommodation but it was inconvenient because we had to go back and forward with the kids.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r421215025-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -369,9 +531,6 @@
     <t>09/22/2016</t>
   </si>
   <si>
-    <t>September 2016</t>
-  </si>
-  <si>
     <t>Management response:Responded September 27, 2016</t>
   </si>
   <si>
@@ -426,6 +585,45 @@
     <t>I don't even know where to begin. We had a reservation and used go fast award points for this stay.  The lady at the desk charged us full price so had to undo the charge.  What's the point of reserving in advance with the go fast points if it's just going to be ignored?  That shouldn't be an issue!  Then, our bed felt like it was very old and uncomfortable and the pillows were lumpy.  The property advertised laundry facilities and after 11 days on the road, that was something we planned to take advantage of.  Each load to wash/dry was $1.75, the most expensive we have seen anywhere in the country.  One of the washers' spin cycle did not work so had to hand wring out clothes and put in dryer.  Dryer didn't work properly either.  Clothes were hot when done but not dry.  We asked about the non-working washing machine and the answer was, "We are not responsible for them."  My husband said, "You advertised that you had them so you need to be responsible if they are not working."  After a bit of a debate, we were at least given our $1.75 back for that. We found that the upper floor ice machine was not working although the bottom floor one did. The advertisement shows a very nice club on property.  Believe me, it's a dive!  It's dark and old and dingy.  Also, the advertisement states there...I don't even know where to begin. We had a reservation and used go fast award points for this stay.  The lady at the desk charged us full price so had to undo the charge.  What's the point of reserving in advance with the go fast points if it's just going to be ignored?  That shouldn't be an issue!  Then, our bed felt like it was very old and uncomfortable and the pillows were lumpy.  The property advertised laundry facilities and after 11 days on the road, that was something we planned to take advantage of.  Each load to wash/dry was $1.75, the most expensive we have seen anywhere in the country.  One of the washers' spin cycle did not work so had to hand wring out clothes and put in dryer.  Dryer didn't work properly either.  Clothes were hot when done but not dry.  We asked about the non-working washing machine and the answer was, "We are not responsible for them."  My husband said, "You advertised that you had them so you need to be responsible if they are not working."  After a bit of a debate, we were at least given our $1.75 back for that. We found that the upper floor ice machine was not working although the bottom floor one did. The advertisement shows a very nice club on property.  Believe me, it's a dive!  It's dark and old and dingy.  Also, the advertisement states there is a restaurant next door.  Not true.  I would advise not wasting your money at this Super 8.  Pass on by and spend a few extra dollars to get better quality!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r372090387-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>372090387</t>
+  </si>
+  <si>
+    <t>05/11/2016</t>
+  </si>
+  <si>
+    <t>Never Again</t>
+  </si>
+  <si>
+    <t>I reserved a smoking room and it took a good 30 minutes for they had one available for me. I was told they don't guarantee that you will get a smoking room. If that is true I would suggest you take "Smoking Room" off of your reservations. There was also dog feces on the floor. Absolutely disgusting.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>I reserved a smoking room and it took a good 30 minutes for they had one available for me. I was told they don't guarantee that you will get a smoking room. If that is true I would suggest you take "Smoking Room" off of your reservations. There was also dog feces on the floor. Absolutely disgusting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r364716375-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>364716375</t>
+  </si>
+  <si>
+    <t>04/16/2016</t>
+  </si>
+  <si>
+    <t>Yuck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I definitely wore shower shoes. The outside of the fridge has crusty dry food all over since the microwave is on top of it, and they evidently do not clean anything. The TV remote was sticky, and I assume the vacuum cleaner broke weeks ago. The only reason I didn't leave was because I was tired. I slept, tried not touching anything, showered, and got out. Lastly they did not apply any Wyndham rewards to my balance. </t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r357829181-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -474,6 +672,36 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r331674120-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>331674120</t>
+  </si>
+  <si>
+    <t>12/09/2015</t>
+  </si>
+  <si>
+    <t>Too many other choices to stay at next time in this area.</t>
+  </si>
+  <si>
+    <t>I should have read the reviews before staying but was in a hurry. This motel needs a lot of updating and a good cleaning. (I'm being nice...) The ice machine was disgustingly dirty!!! Went to a local convenience store to buy ice!!!! To look at this property from the road I thought it would be pretty nice, but looks are deceiving. If you decide to stay check out the room first and your neighbors. Continental breakfast sucked!!!!</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r309122998-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>309122998</t>
+  </si>
+  <si>
+    <t>09/10/2015</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r298489182-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -519,6 +747,42 @@
     <t>any reviews by last name Patel giving good rating to this hotel are the same who own this crappy dirty hotel.We rented a room on 4th of July &amp; was told room would be ready @ 2.  At 3 p.m. and the room was dirty, smelly, was finally ready almost 4. We were pissed but No apolgies were offered instead the Indian son accused us of using drugs the last time we were there.  NEVER AGAIN WILL I RENT FROM THIS LOCATION!The employees confirmed my suspicions, the owner Patel is rude &amp; cheap.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r281265712-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>281265712</t>
+  </si>
+  <si>
+    <t>06/18/2015</t>
+  </si>
+  <si>
+    <t>STAY AWAY AT ALL COSTS!!!</t>
+  </si>
+  <si>
+    <t>Bed bugs everywhere! Less than 4 hours of checking in, I've got dozens of red bumps across my sides and back that itch like crazy. Checked the sheets and little blood marks everywhere. ABSOLUTELY DISGUSTING! AVOID AT ALL COST!</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r274014757-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>274014757</t>
+  </si>
+  <si>
+    <t>05/23/2015</t>
+  </si>
+  <si>
+    <t>Very bad motel</t>
+  </si>
+  <si>
+    <t>The check in clerk was very rude, slow and obnoxious. He spent 20 minutes copying my ID,credit card, and second government ID.  The motel was moldy, smelled bad, and probably has not seen an upgrade in 15 years. I have stayed in much better hotels for $50/ night. I should have left, but it was a very long travel day..</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r264993479-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -567,6 +831,39 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r227004917-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>227004917</t>
+  </si>
+  <si>
+    <t>09/04/2014</t>
+  </si>
+  <si>
+    <t>Filthy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First thing there was poop in the toilet. Second pulled the sheets back where there stains and bugs crawling. Third the mildew on the walls and the smell was horrible. Went to tell the desk clerk and she said the room was cleaned today.  Well obviously it wasn't.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r218052472-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>218052472</t>
+  </si>
+  <si>
+    <t>07/28/2014</t>
+  </si>
+  <si>
+    <t>Don't do it!</t>
+  </si>
+  <si>
+    <t>This is the dirtiest place ever! I got inside scoop from some of the employees on how the owners are willing to cut corners to make money. They have the rudest front desk attendant . The rooms are disgusting.  It took them 1 year to get their pool up to thw city standards because they kept beeing cheap about it. They yell at their staff like they are dirt. It is an overall mess ! The floors are wet and dirty. I have seen the way that they clean them it's bad. The only reason we stayed was because of my husband's job and we had payed in advance. Please do not stay here it isso nasty. If you have kids do not go here. They only clean up the visible mess and the sheets have holes in them. The cleaning ladies wouldn't clean my sheets if they thought they looked clean because they said they would get after thwm if they stayed longer hours. Overall bad/horrible experience. Never again!MoreShow less</t>
+  </si>
+  <si>
+    <t>This is the dirtiest place ever! I got inside scoop from some of the employees on how the owners are willing to cut corners to make money. They have the rudest front desk attendant . The rooms are disgusting.  It took them 1 year to get their pool up to thw city standards because they kept beeing cheap about it. They yell at their staff like they are dirt. It is an overall mess ! The floors are wet and dirty. I have seen the way that they clean them it's bad. The only reason we stayed was because of my husband's job and we had payed in advance. Please do not stay here it isso nasty. If you have kids do not go here. They only clean up the visible mess and the sheets have holes in them. The cleaning ladies wouldn't clean my sheets if they thought they looked clean because they said they would get after thwm if they stayed longer hours. Overall bad/horrible experience. Never again!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r216437273-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -606,6 +903,33 @@
     <t>06/27/2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r211555754-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>211555754</t>
+  </si>
+  <si>
+    <t>06/22/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r205380789-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>205380789</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>over night stay</t>
+  </si>
+  <si>
+    <t>stayed overnight to check out area,  property was in sad shape.room furniture not bad but room was in dire need of remodel.  rust stains on wall by door rough patch work on walls ,room was a smokeing room that stunk. pool wasnt open.garbage around building. the only good thing about this place was the desk staff was nice.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r177812765-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -624,9 +948,6 @@
     <t>July 2013</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r168569327-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -660,6 +981,33 @@
     <t>When u go ti a motel u di not expect Dirty  stained sheets in bed. Check ur bed first if u come.   rooms could be cleaner carpet dirty recliner none a chair with holes in arms no Internet service in hotel room. Coffee maker but no coffee refills not even a bar of soap in restroom. Breakfast is toast ego waffle and dry cereal.  They have a club and had to call as music was booming at night.  Contractors stay here so manager making money from them.  Short on towels tv reception sucks. The staff at desk very nice but otherwise a run down place I would not recommend to any family.  You can Do a lot better.  Enjoyed the beaches.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r163957119-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>163957119</t>
+  </si>
+  <si>
+    <t>06/14/2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r161852252-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>161852252</t>
+  </si>
+  <si>
+    <t>05/26/2013</t>
+  </si>
+  <si>
+    <t>Dirty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't do it...I have stayed in many hotels and motels and I don't even want to stay after walking in but my dog is with me this time..the rooms weren't even cleaned good and everything is falling off and the water was a little brown and the vents were so dirty it was gross..I will never stay here again. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r155463230-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -711,6 +1059,45 @@
     <t>This place was great! My husband and I worked late and we were Dog Tired. We stopped in here, the front desk staff were the best and she went far beyond what she's supposed to in order to make us happy. We thought to have a couple drinks in sports bar but the bartender was so amazing we ended up staying till closing time. I would recommend thus place to friends and family for future visits. Upon checkout I called to see I we could have a late checkout and was very happy to know that they were accommodating. This place is definitely a place I'll look forward to staying at in the future. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r135873997-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>135873997</t>
+  </si>
+  <si>
+    <t>07/31/2012</t>
+  </si>
+  <si>
+    <t>Perfect Backdrop for Filming a Horror Movie</t>
+  </si>
+  <si>
+    <t>When I booked this room, I was not expecting much. I just wanted a place to sleep after a long day at the beach. That said, this was worse than I thought it would be. When I walked in the lobby, there was no A/C. I'm pretty sure the computer the guy checked me on was running pre-Windows 95 software. Our room was on the side of the hotel opposite of the highway. As we walked to our room I noticed that nearly every door had forced entry at one point or another. Not a good sign. The rusted A/C units from the upstairs rooms were leaking water on to our heads as we walked by. I opened the door to our room to find a unique blend of smells. The room smelled of dollar store cleaner and old wet blankets. Looking around, the carpet was torn in many places, the floor was uneven, and everything had a layer of grime on it. The comforters on both of our beds had huge holes in them. I can only assume the hotel was trying to convert the blankets into Snuggies. The other sheets on the bed felt like they had been washed a few thousand times with rocks. The TV was probably way ahead of its time in 1985, but only had 12 channels. LITERALLY, 12 channels. The bathroom was more dated than should be allowed. The walls were 1960's wallpaper...When I booked this room, I was not expecting much. I just wanted a place to sleep after a long day at the beach. That said, this was worse than I thought it would be. When I walked in the lobby, there was no A/C. I'm pretty sure the computer the guy checked me on was running pre-Windows 95 software. Our room was on the side of the hotel opposite of the highway. As we walked to our room I noticed that nearly every door had forced entry at one point or another. Not a good sign. The rusted A/C units from the upstairs rooms were leaking water on to our heads as we walked by. I opened the door to our room to find a unique blend of smells. The room smelled of dollar store cleaner and old wet blankets. Looking around, the carpet was torn in many places, the floor was uneven, and everything had a layer of grime on it. The comforters on both of our beds had huge holes in them. I can only assume the hotel was trying to convert the blankets into Snuggies. The other sheets on the bed felt like they had been washed a few thousand times with rocks. The TV was probably way ahead of its time in 1985, but only had 12 channels. LITERALLY, 12 channels. The bathroom was more dated than should be allowed. The walls were 1960's wallpaper green with broken pieces scattered along the wall. The bathtub was perhaps suitable for washing pets, but nothing more. The towels they gave us were one small step above shop rags and were probably less absorbent. I think the picture is clear. Being that it was late and we were tired, we stayed. We were woken up many times throughout the night with idiots next to us banging on the door at 130am and a yelling match going on in the parking lot. Nothing like a good old fashioned yelling match to put me right to sleep. Some of this could be due to the fact that this "Super" 8 has a Sports Bar on the premises. So, we made it through the night and I decided it would be interesting to see what "breakfast" was offered. I was not disappointed in my inquiry. The breakfast consisted of: expired Fruit Loops, expired Raisin Bran, old toast, doughnuts that a grocery store threw in the dumpster prior to being claimed by this Super 8, a broken juice machine, unlabeled packages of something that resembled oatmeal, and coffee. In summary, if you enjoy the show Fear Factor or need a good backdrop for a horror film, this is right up your alley. This is not a hotel for kids or people in general.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>When I booked this room, I was not expecting much. I just wanted a place to sleep after a long day at the beach. That said, this was worse than I thought it would be. When I walked in the lobby, there was no A/C. I'm pretty sure the computer the guy checked me on was running pre-Windows 95 software. Our room was on the side of the hotel opposite of the highway. As we walked to our room I noticed that nearly every door had forced entry at one point or another. Not a good sign. The rusted A/C units from the upstairs rooms were leaking water on to our heads as we walked by. I opened the door to our room to find a unique blend of smells. The room smelled of dollar store cleaner and old wet blankets. Looking around, the carpet was torn in many places, the floor was uneven, and everything had a layer of grime on it. The comforters on both of our beds had huge holes in them. I can only assume the hotel was trying to convert the blankets into Snuggies. The other sheets on the bed felt like they had been washed a few thousand times with rocks. The TV was probably way ahead of its time in 1985, but only had 12 channels. LITERALLY, 12 channels. The bathroom was more dated than should be allowed. The walls were 1960's wallpaper...When I booked this room, I was not expecting much. I just wanted a place to sleep after a long day at the beach. That said, this was worse than I thought it would be. When I walked in the lobby, there was no A/C. I'm pretty sure the computer the guy checked me on was running pre-Windows 95 software. Our room was on the side of the hotel opposite of the highway. As we walked to our room I noticed that nearly every door had forced entry at one point or another. Not a good sign. The rusted A/C units from the upstairs rooms were leaking water on to our heads as we walked by. I opened the door to our room to find a unique blend of smells. The room smelled of dollar store cleaner and old wet blankets. Looking around, the carpet was torn in many places, the floor was uneven, and everything had a layer of grime on it. The comforters on both of our beds had huge holes in them. I can only assume the hotel was trying to convert the blankets into Snuggies. The other sheets on the bed felt like they had been washed a few thousand times with rocks. The TV was probably way ahead of its time in 1985, but only had 12 channels. LITERALLY, 12 channels. The bathroom was more dated than should be allowed. The walls were 1960's wallpaper green with broken pieces scattered along the wall. The bathtub was perhaps suitable for washing pets, but nothing more. The towels they gave us were one small step above shop rags and were probably less absorbent. I think the picture is clear. Being that it was late and we were tired, we stayed. We were woken up many times throughout the night with idiots next to us banging on the door at 130am and a yelling match going on in the parking lot. Nothing like a good old fashioned yelling match to put me right to sleep. Some of this could be due to the fact that this "Super" 8 has a Sports Bar on the premises. So, we made it through the night and I decided it would be interesting to see what "breakfast" was offered. I was not disappointed in my inquiry. The breakfast consisted of: expired Fruit Loops, expired Raisin Bran, old toast, doughnuts that a grocery store threw in the dumpster prior to being claimed by this Super 8, a broken juice machine, unlabeled packages of something that resembled oatmeal, and coffee. In summary, if you enjoy the show Fear Factor or need a good backdrop for a horror film, this is right up your alley. This is not a hotel for kids or people in general.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r115824820-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>115824820</t>
+  </si>
+  <si>
+    <t>07/26/2011</t>
+  </si>
+  <si>
+    <t>We all enjoyed and had a great time in Lake Jackson.</t>
+  </si>
+  <si>
+    <t>This was my first trip with our friends to lake jackson, tx.  We didnt know what to expect on this trip; recap of the weekend, amazing time.  We got in late to the hotel, we were dead tired from the drive and all we wanted was to hit the bed.  The hostess checked us in mere minutes and the rooms were clean and cool.  We woke up early in the morning, got our coffee and donuts and headed out.  Overall, the hotel was alot better than the other ones, me and my friends have stayed on when we do our random trips.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r67016841-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
   </si>
   <si>
@@ -720,9 +1107,6 @@
     <t>06/09/2010</t>
   </si>
   <si>
-    <t>Never Again</t>
-  </si>
-  <si>
     <t>Room was gross. It had ants and the sheets felt dirty. The tv only got 4 channels. The motel was completely inhabited with shady characters. For the same price stay at Cherotel or Tx Inn and Suites.</t>
   </si>
   <si>
@@ -766,6 +1150,21 @@
   </si>
   <si>
     <t>Was only going to be in Lake Jackson for 2 nights, so thought the price was really good.  Checked in the hotel and found a cockroach in the bathtub. Killed it thinking it was an isolated event.  Went to family's house for evening, upon return found more cockroaches and by 10:00 they were coming out and crawling up the walls, accross the floor, and over the tables.  These weren't the large dark ones know as tree or water roaches. These were the little gray/light brown ones that are found in infestations.  We checked out and went to another hotel. The extra cost was worth not worrying about things crawling on us in our sleep.  Dirty hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56123-d73391-r4599089-Super_8_by_Wyndham_Lake_Jackson_Clute-Lake_Jackson_Texas.html</t>
+  </si>
+  <si>
+    <t>4599089</t>
+  </si>
+  <si>
+    <t>03/09/2006</t>
+  </si>
+  <si>
+    <t>This Place Should Be Condemned</t>
+  </si>
+  <si>
+    <t>This was the worst hotel I've ever stayed in. We were in a non-smoking room yet burn holes mysteriously appeared in our bedding after the maids came in--through the top layer and down to the sheets so obviously someone was smoking while making the bed! The place smelled, there was mold and mildew and I think there were bed bugs or fleas in the bedding because I came home covered in bites. Terrible hotel, don't waste your money or risk your health.</t>
   </si>
 </sst>
 </file>
@@ -1360,10 +1759,10 @@
         <v>5</v>
       </c>
       <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
         <v>58</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1405,19 +1804,23 @@
         <v>60</v>
       </c>
       <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" t="s">
         <v>61</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>62</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>63</v>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
+      <c r="O4" t="s">
+        <v>64</v>
+      </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
@@ -1430,7 +1833,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
@@ -1446,7 +1849,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1455,10 +1858,10 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="K5" t="s">
         <v>67</v>
@@ -1467,30 +1870,20 @@
         <v>68</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>4</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>1</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
@@ -1513,58 +1906,44 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>70</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>71</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>72</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>73</v>
       </c>
-      <c r="L6" t="s">
-        <v>74</v>
-      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
-      <c r="N6" t="s">
-        <v>75</v>
-      </c>
-      <c r="O6" t="s">
-        <v>76</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" t="n">
-        <v>3</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1</v>
-      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>2</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
@@ -1580,56 +1959,48 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" t="s">
         <v>77</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>78</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>79</v>
       </c>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s">
+      <c r="O7" t="s">
         <v>80</v>
       </c>
-      <c r="M7" t="n">
-        <v>2</v>
-      </c>
-      <c r="N7" t="s">
-        <v>81</v>
-      </c>
-      <c r="O7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1</v>
-      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -1645,55 +2016,53 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" t="s">
         <v>83</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>79</v>
+      </c>
+      <c r="O8" t="s">
         <v>84</v>
       </c>
-      <c r="J8" t="s">
-        <v>85</v>
-      </c>
-      <c r="K8" t="s">
-        <v>86</v>
-      </c>
-      <c r="L8" t="s">
-        <v>87</v>
-      </c>
-      <c r="M8" t="n">
-        <v>3</v>
-      </c>
-      <c r="N8" t="s">
-        <v>75</v>
-      </c>
-      <c r="O8" t="s">
-        <v>88</v>
-      </c>
       <c r="P8" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
-      <c r="Y8" t="s">
-        <v>87</v>
-      </c>
+      <c r="Y8" t="s"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1708,53 +2077,59 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" t="s">
         <v>89</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
         <v>90</v>
       </c>
-      <c r="J9" t="s">
-        <v>91</v>
-      </c>
-      <c r="K9" t="s"/>
-      <c r="L9" t="s"/>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>92</v>
-      </c>
       <c r="O9" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
         <v>4</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
-      <c r="Y9" t="s"/>
+      <c r="Y9" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1769,30 +2144,34 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" t="s">
         <v>94</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
         <v>95</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
         <v>96</v>
       </c>
-      <c r="K10" t="s"/>
-      <c r="L10" t="s"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>92</v>
-      </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -1815,7 +2194,9 @@
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
-      <c r="Y10" t="s"/>
+      <c r="Y10" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1846,44 +2227,40 @@
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>101</v>
-      </c>
-      <c r="X11" t="s">
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
         <v>102</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="12">
@@ -1920,20 +2297,30 @@
         <v>107</v>
       </c>
       <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>96</v>
+      </c>
+      <c r="O12" t="s">
+        <v>64</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
         <v>3</v>
       </c>
-      <c r="N12" t="s">
-        <v>108</v>
-      </c>
-      <c r="O12" t="s">
-        <v>93</v>
-      </c>
-      <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
@@ -1956,54 +2343,48 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
         <v>109</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>110</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>111</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>112</v>
       </c>
-      <c r="L13" t="s">
-        <v>113</v>
-      </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="O13" t="s">
-        <v>93</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>1</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
@@ -2019,60 +2400,54 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
         <v>114</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>115</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>116</v>
       </c>
-      <c r="K14" t="s"/>
       <c r="L14" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="P14" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
         <v>3</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>118</v>
-      </c>
-      <c r="X14" t="s">
-        <v>119</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15">
@@ -2088,63 +2463,53 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15" t="s">
         <v>120</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s"/>
+      <c r="L15" t="s"/>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
         <v>121</v>
-      </c>
-      <c r="J15" t="s">
-        <v>122</v>
-      </c>
-      <c r="K15" t="s">
-        <v>123</v>
-      </c>
-      <c r="L15" t="s">
-        <v>124</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="s">
-        <v>125</v>
       </c>
       <c r="O15" t="s">
         <v>53</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>126</v>
-      </c>
-      <c r="X15" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>128</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2159,7 +2524,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2168,50 +2533,44 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="J16" t="s">
-        <v>131</v>
-      </c>
-      <c r="K16" t="s">
-        <v>132</v>
-      </c>
-      <c r="L16" t="s">
-        <v>133</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="O16" t="s">
-        <v>93</v>
-      </c>
-      <c r="P16" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
       <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>118</v>
-      </c>
-      <c r="X16" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>135</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2226,7 +2585,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2235,51 +2594,49 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="J17" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="K17" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="L17" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="O17" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>118</v>
-      </c>
-      <c r="X17" t="s">
-        <v>119</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18">
@@ -2295,7 +2652,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2304,22 +2661,26 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="J18" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="K18" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="L18" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
+      <c r="N18" t="s">
+        <v>135</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
@@ -2329,10 +2690,14 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>136</v>
+      </c>
+      <c r="X18" t="s">
+        <v>137</v>
+      </c>
       <c r="Y18" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19">
@@ -2348,7 +2713,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2357,30 +2722,32 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J19" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="K19" t="s"/>
-      <c r="L19" t="s"/>
+      <c r="L19" t="s">
+        <v>100</v>
+      </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="O19" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -2392,9 +2759,15 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
-      <c r="Y19" t="s"/>
+      <c r="W19" t="s">
+        <v>143</v>
+      </c>
+      <c r="X19" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2409,7 +2782,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2418,49 +2791,39 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="J20" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="K20" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="L20" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="O20" t="s">
-        <v>93</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>4</v>
-      </c>
-      <c r="R20" t="n">
-        <v>4</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>4</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21">
@@ -2476,7 +2839,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2485,44 +2848,46 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="J21" t="s">
-        <v>160</v>
-      </c>
-      <c r="K21" t="s"/>
-      <c r="L21" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="K21" t="s">
+        <v>154</v>
+      </c>
+      <c r="L21" t="s">
+        <v>155</v>
+      </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="O21" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>5</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
-      <c r="Y21" t="s"/>
+      <c r="Y21" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2537,7 +2902,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2546,39 +2911,49 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="J22" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="K22" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="L22" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="O22" t="s">
-        <v>93</v>
-      </c>
-      <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23">
@@ -2594,7 +2969,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2603,39 +2978,49 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J23" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="K23" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L23" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="O23" t="s">
-        <v>88</v>
-      </c>
-      <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24">
@@ -2651,7 +3036,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2660,24 +3045,26 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="J24" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="K24" t="s"/>
-      <c r="L24" t="s"/>
+      <c r="L24" t="s">
+        <v>100</v>
+      </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="O24" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -2686,18 +3073,24 @@
         <v>3</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
-      <c r="Y24" t="s"/>
+      <c r="W24" t="s">
+        <v>171</v>
+      </c>
+      <c r="X24" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2712,56 +3105,60 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>173</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>174</v>
+      </c>
+      <c r="J25" t="s">
+        <v>175</v>
+      </c>
+      <c r="K25" t="s">
+        <v>176</v>
+      </c>
+      <c r="L25" t="s">
         <v>177</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
         <v>178</v>
       </c>
-      <c r="J25" t="s">
-        <v>179</v>
-      </c>
-      <c r="K25" t="s">
-        <v>180</v>
-      </c>
-      <c r="L25" t="s">
-        <v>181</v>
-      </c>
-      <c r="M25" t="n">
+      <c r="O25" t="s">
+        <v>64</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
         <v>3</v>
       </c>
-      <c r="N25" t="s">
-        <v>182</v>
-      </c>
-      <c r="O25" t="s">
-        <v>53</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>3</v>
-      </c>
-      <c r="R25" t="n">
-        <v>4</v>
-      </c>
       <c r="S25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>179</v>
+      </c>
+      <c r="X25" t="s">
+        <v>180</v>
+      </c>
       <c r="Y25" t="s">
         <v>181</v>
       </c>
@@ -2779,46 +3176,42 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
         <v>183</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>184</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>185</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>186</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
         <v>187</v>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="s">
-        <v>188</v>
-      </c>
       <c r="O26" t="s">
-        <v>93</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="n">
-        <v>1</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="R26" t="s"/>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
@@ -2827,10 +3220,14 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>171</v>
+      </c>
+      <c r="X26" t="s">
+        <v>172</v>
+      </c>
       <c r="Y26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27">
@@ -2860,16 +3257,20 @@
       <c r="J27" t="s">
         <v>191</v>
       </c>
-      <c r="K27" t="s"/>
-      <c r="L27" t="s"/>
+      <c r="K27" t="s">
+        <v>192</v>
+      </c>
+      <c r="L27" t="s">
+        <v>193</v>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O27" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
@@ -2878,21 +3279,27 @@
         <v>1</v>
       </c>
       <c r="R27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S27" t="n">
         <v>1</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
-      <c r="Y27" t="s"/>
+      <c r="W27" t="s">
+        <v>171</v>
+      </c>
+      <c r="X27" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2907,7 +3314,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -2916,23 +3323,25 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="J28" t="s">
-        <v>195</v>
-      </c>
-      <c r="K28" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="K28" t="s">
+        <v>199</v>
+      </c>
       <c r="L28" t="s">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
@@ -2948,7 +3357,7 @@
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2956,7 +3365,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>82</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29">
@@ -2972,7 +3381,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -2981,49 +3390,51 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="J29" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="K29" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="L29" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="O29" t="s">
-        <v>202</v>
+        <v>58</v>
       </c>
       <c r="P29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q29" t="n">
         <v>2</v>
       </c>
-      <c r="R29" t="n">
-        <v>2</v>
-      </c>
+      <c r="R29" t="s"/>
       <c r="S29" t="n">
         <v>2</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>171</v>
+      </c>
+      <c r="X29" t="s">
+        <v>172</v>
+      </c>
       <c r="Y29" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30">
@@ -3039,7 +3450,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3048,47 +3459,35 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="J30" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="K30" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="L30" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="s">
-        <v>201</v>
-      </c>
-      <c r="O30" t="s">
-        <v>88</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
-      <c r="S30" t="n">
-        <v>1</v>
-      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>1</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31">
@@ -3104,7 +3503,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3113,46 +3512,44 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="J31" t="s">
-        <v>210</v>
-      </c>
-      <c r="K31" t="s">
-        <v>211</v>
-      </c>
-      <c r="L31" t="s">
-        <v>212</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
+      <c r="N31" t="s">
+        <v>217</v>
+      </c>
+      <c r="O31" t="s">
+        <v>58</v>
+      </c>
       <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
         <v>3</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1</v>
-      </c>
-      <c r="R31" t="n">
-        <v>4</v>
       </c>
       <c r="S31" t="n">
         <v>1</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
-      <c r="Y31" t="s">
-        <v>213</v>
-      </c>
+      <c r="Y31" t="s"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3167,7 +3564,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3176,44 +3573,46 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="J32" t="s">
-        <v>216</v>
-      </c>
-      <c r="K32" t="s"/>
-      <c r="L32" t="s"/>
+        <v>220</v>
+      </c>
+      <c r="K32" t="s">
+        <v>221</v>
+      </c>
+      <c r="L32" t="s">
+        <v>222</v>
+      </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
-      <c r="Y32" t="s"/>
+      <c r="Y32" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3228,7 +3627,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3237,25 +3636,21 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="J33" t="s">
-        <v>220</v>
-      </c>
-      <c r="K33" t="s">
-        <v>221</v>
-      </c>
-      <c r="L33" t="s">
-        <v>222</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s"/>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="O33" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="P33" t="n">
         <v>1</v>
@@ -3267,20 +3662,18 @@
         <v>4</v>
       </c>
       <c r="S33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
-      <c r="Y33" t="s">
-        <v>224</v>
-      </c>
+      <c r="Y33" t="s"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3295,7 +3688,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3304,35 +3697,41 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="J34" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K34" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L34" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
-      </c>
-      <c r="N34" t="s"/>
-      <c r="O34" t="s"/>
-      <c r="P34" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>233</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
       <c r="Q34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3340,7 +3739,7 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35">
@@ -3356,7 +3755,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3365,46 +3764,44 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J35" t="s">
-        <v>233</v>
-      </c>
-      <c r="K35" t="s">
-        <v>234</v>
-      </c>
-      <c r="L35" t="s">
-        <v>235</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s"/>
       <c r="M35" t="n">
-        <v>2</v>
-      </c>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>237</v>
+      </c>
+      <c r="O35" t="s">
+        <v>58</v>
+      </c>
       <c r="P35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
-      <c r="Y35" t="s">
-        <v>235</v>
-      </c>
+      <c r="Y35" t="s"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3419,7 +3816,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3428,42 +3825,32 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
+        <v>239</v>
+      </c>
+      <c r="J36" t="s">
+        <v>240</v>
+      </c>
+      <c r="K36" t="s">
+        <v>241</v>
+      </c>
+      <c r="L36" t="s">
+        <v>242</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
         <v>237</v>
-      </c>
-      <c r="J36" t="s">
-        <v>238</v>
-      </c>
-      <c r="K36" t="s">
-        <v>239</v>
-      </c>
-      <c r="L36" t="s">
-        <v>240</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="s">
-        <v>241</v>
       </c>
       <c r="O36" t="s">
         <v>53</v>
       </c>
-      <c r="P36" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1</v>
-      </c>
-      <c r="R36" t="n">
-        <v>4</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1</v>
-      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>1</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
@@ -3513,31 +3900,1610 @@
         <v>248</v>
       </c>
       <c r="O37" t="s">
-        <v>88</v>
-      </c>
-      <c r="P37" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1</v>
-      </c>
-      <c r="R37" t="n">
-        <v>3</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>3</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
         <v>249</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>250</v>
+      </c>
+      <c r="J38" t="s">
+        <v>251</v>
+      </c>
+      <c r="K38" t="s">
+        <v>252</v>
+      </c>
+      <c r="L38" t="s">
+        <v>253</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>254</v>
+      </c>
+      <c r="O38" t="s">
+        <v>64</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>255</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>256</v>
+      </c>
+      <c r="J39" t="s">
+        <v>257</v>
+      </c>
+      <c r="K39" t="s">
+        <v>258</v>
+      </c>
+      <c r="L39" t="s">
+        <v>259</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>260</v>
+      </c>
+      <c r="O39" t="s">
+        <v>58</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>261</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>262</v>
+      </c>
+      <c r="J40" t="s">
+        <v>263</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s"/>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>264</v>
+      </c>
+      <c r="O40" t="s">
+        <v>58</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>265</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>266</v>
+      </c>
+      <c r="J41" t="s">
+        <v>267</v>
+      </c>
+      <c r="K41" t="s">
+        <v>268</v>
+      </c>
+      <c r="L41" t="s">
+        <v>269</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>270</v>
+      </c>
+      <c r="O41" t="s">
+        <v>64</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>271</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>272</v>
+      </c>
+      <c r="J42" t="s">
+        <v>273</v>
+      </c>
+      <c r="K42" t="s">
+        <v>274</v>
+      </c>
+      <c r="L42" t="s">
+        <v>275</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>276</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>277</v>
+      </c>
+      <c r="J43" t="s">
+        <v>278</v>
+      </c>
+      <c r="K43" t="s">
+        <v>279</v>
+      </c>
+      <c r="L43" t="s">
+        <v>280</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>282</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>283</v>
+      </c>
+      <c r="J44" t="s">
+        <v>284</v>
+      </c>
+      <c r="K44" t="s">
+        <v>285</v>
+      </c>
+      <c r="L44" t="s">
+        <v>286</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>287</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>288</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>289</v>
+      </c>
+      <c r="J45" t="s">
+        <v>290</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s"/>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>291</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>292</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>293</v>
+      </c>
+      <c r="J46" t="s">
+        <v>294</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s">
+        <v>100</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>291</v>
+      </c>
+      <c r="O46" t="s">
+        <v>64</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>295</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>296</v>
+      </c>
+      <c r="J47" t="s">
+        <v>297</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s"/>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>291</v>
+      </c>
+      <c r="O47" t="s">
+        <v>58</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>2</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>298</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>299</v>
+      </c>
+      <c r="J48" t="s">
+        <v>300</v>
+      </c>
+      <c r="K48" t="s">
+        <v>301</v>
+      </c>
+      <c r="L48" t="s">
+        <v>302</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>303</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>304</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>305</v>
+      </c>
+      <c r="J49" t="s">
+        <v>306</v>
+      </c>
+      <c r="K49" t="s">
+        <v>307</v>
+      </c>
+      <c r="L49" t="s">
+        <v>308</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>309</v>
+      </c>
+      <c r="O49" t="s">
+        <v>84</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>310</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>311</v>
+      </c>
+      <c r="J50" t="s">
+        <v>312</v>
+      </c>
+      <c r="K50" t="s">
+        <v>313</v>
+      </c>
+      <c r="L50" t="s">
+        <v>314</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>309</v>
+      </c>
+      <c r="O50" t="s">
+        <v>58</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>315</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>316</v>
+      </c>
+      <c r="J51" t="s">
+        <v>317</v>
+      </c>
+      <c r="K51" t="s">
+        <v>318</v>
+      </c>
+      <c r="L51" t="s">
+        <v>319</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>321</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>322</v>
+      </c>
+      <c r="J52" t="s">
+        <v>323</v>
+      </c>
+      <c r="K52" t="s"/>
+      <c r="L52" t="s"/>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>324</v>
+      </c>
+      <c r="O52" t="s">
+        <v>58</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>325</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>326</v>
+      </c>
+      <c r="J53" t="s">
+        <v>327</v>
+      </c>
+      <c r="K53" t="s">
+        <v>328</v>
+      </c>
+      <c r="L53" t="s">
+        <v>329</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>330</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>331</v>
+      </c>
+      <c r="J54" t="s">
+        <v>332</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s"/>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>333</v>
+      </c>
+      <c r="O54" t="s">
+        <v>64</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>334</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>335</v>
+      </c>
+      <c r="J55" t="s">
+        <v>336</v>
+      </c>
+      <c r="K55" t="s">
+        <v>337</v>
+      </c>
+      <c r="L55" t="s">
+        <v>338</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>339</v>
+      </c>
+      <c r="O55" t="s">
+        <v>58</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>341</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>342</v>
+      </c>
+      <c r="J56" t="s">
+        <v>343</v>
+      </c>
+      <c r="K56" t="s">
+        <v>344</v>
+      </c>
+      <c r="L56" t="s">
+        <v>345</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>347</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>348</v>
+      </c>
+      <c r="J57" t="s">
+        <v>349</v>
+      </c>
+      <c r="K57" t="s">
+        <v>350</v>
+      </c>
+      <c r="L57" t="s">
+        <v>351</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>352</v>
+      </c>
+      <c r="O57" t="s">
+        <v>58</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>354</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>355</v>
+      </c>
+      <c r="J58" t="s">
+        <v>356</v>
+      </c>
+      <c r="K58" t="s">
+        <v>357</v>
+      </c>
+      <c r="L58" t="s">
+        <v>358</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>359</v>
+      </c>
+      <c r="O58" t="s">
+        <v>84</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>360</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>361</v>
+      </c>
+      <c r="J59" t="s">
+        <v>362</v>
+      </c>
+      <c r="K59" t="s">
+        <v>192</v>
+      </c>
+      <c r="L59" t="s">
+        <v>363</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>2</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>364</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>365</v>
+      </c>
+      <c r="J60" t="s">
+        <v>366</v>
+      </c>
+      <c r="K60" t="s">
+        <v>367</v>
+      </c>
+      <c r="L60" t="s">
+        <v>368</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>369</v>
+      </c>
+      <c r="O60" t="s">
+        <v>64</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>371</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>372</v>
+      </c>
+      <c r="J61" t="s">
+        <v>373</v>
+      </c>
+      <c r="K61" t="s">
+        <v>374</v>
+      </c>
+      <c r="L61" t="s">
+        <v>375</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>376</v>
+      </c>
+      <c r="O61" t="s">
+        <v>58</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>378</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>379</v>
+      </c>
+      <c r="J62" t="s">
+        <v>380</v>
+      </c>
+      <c r="K62" t="s">
+        <v>381</v>
+      </c>
+      <c r="L62" t="s">
+        <v>382</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
